--- a/Hardware/SCX3.xlsx
+++ b/Hardware/SCX3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
   <si>
     <t>Qty</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>AK500/3</t>
+  </si>
+  <si>
+    <t>TEN3-2422WIN</t>
+  </si>
+  <si>
+    <t>TEN3-WIN</t>
   </si>
   <si>
     <t>U2</t>
@@ -467,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,21 +630,6 @@
     <font>
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1057,10 +1048,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1068,58 +1068,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1467,1249 +1434,1123 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.21875" style="2" customWidth="1"/>
-    <col min="8" max="10" width="14.21875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="45.21875" style="5" customWidth="1"/>
+    <col min="8" max="10" width="14.21875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>20</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5">
+        <v>470</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="5">
+        <v>100</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="5">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="5">
+        <v>330</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18">
-        <v>14</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18">
-        <v>9</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18">
-        <v>2</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18">
-        <v>3</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="C46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="G47" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="F18" s="20" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="G18" s="19" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18">
-        <v>5</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18">
-        <v>1</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>22</v>
-      </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="18">
-        <v>3</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>24</v>
-      </c>
-      <c r="B25" s="18">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>26</v>
-      </c>
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="18">
-        <v>3</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>28</v>
-      </c>
-      <c r="B29" s="18">
-        <v>3</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>32</v>
-      </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="18">
-        <v>21</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="19" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>34</v>
-      </c>
-      <c r="B35" s="18">
-        <v>20</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
-      <c r="B36" s="18">
-        <v>12</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18">
-        <v>8</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="19">
-        <v>470</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
-        <v>37</v>
-      </c>
-      <c r="B38" s="18">
-        <v>7</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>38</v>
-      </c>
-      <c r="B39" s="18">
-        <v>6</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18">
-        <v>4</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="19">
-        <v>100</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-    </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
-        <v>40</v>
-      </c>
-      <c r="B41" s="18">
-        <v>1</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="19">
-        <v>130</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18">
-        <v>1</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="19">
-        <v>330</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>43</v>
-      </c>
-      <c r="B44" s="18">
-        <v>1</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>44</v>
-      </c>
-      <c r="B45" s="18">
-        <v>1</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
-      <c r="B46" s="18">
-        <v>3</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
-        <v>46</v>
-      </c>
-      <c r="B47" s="18">
-        <v>1</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
-        <v>48</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
-        <v>49</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
-        <v>50</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
     </row>
   </sheetData>
   <sortState ref="B2:I53">
